--- a/inst/extdata/ex03/User_05032018.xlsx
+++ b/inst/extdata/ex03/User_05032018.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11400"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11400" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Blank" sheetId="3" r:id="rId1"/>
@@ -49,12 +49,6 @@
     <t>BLANK</t>
   </si>
   <si>
-    <t>SN1</t>
-  </si>
-  <si>
-    <t>SN2</t>
-  </si>
-  <si>
     <t>Sample</t>
   </si>
   <si>
@@ -89,9 +83,6 @@
   </si>
   <si>
     <t>Concentration (µg/L)</t>
-  </si>
-  <si>
-    <t>LYSAT</t>
   </si>
   <si>
     <t>Target</t>
@@ -134,6 +125,15 @@
   </si>
   <si>
     <t>siGENE_AB</t>
+  </si>
+  <si>
+    <t>LYSATE</t>
+  </si>
+  <si>
+    <t>SUPERNATANT1</t>
+  </si>
+  <si>
+    <t>SUPERNATANT2</t>
   </si>
 </sst>
 </file>
@@ -2909,7 +2909,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -2929,13 +2929,13 @@
         <v>3</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>1</v>
@@ -2944,19 +2944,19 @@
         <v>0</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="N1" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -2964,10 +2964,10 @@
         <v>43164</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>4</v>
@@ -3197,1042 +3197,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="11.42578125" customWidth="1"/>
-    <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="6" width="11.42578125" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" customWidth="1"/>
-    <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="29.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <f>Blank!A$2</f>
-        <v>43164</v>
-      </c>
-      <c r="B2" s="2" t="str">
-        <f>Blank!B$2</f>
-        <v>User</v>
-      </c>
-      <c r="C2" s="2" t="str">
-        <f>Blank!C$2</f>
-        <v>siGENE_AB</v>
-      </c>
-      <c r="D2" s="1" t="str">
-        <f t="shared" ref="D2:D19" ca="1" si="0">RIGHT(CELL("nomfichier",A1),LEN(CELL("nomfichier",A1))-SEARCH("]",CELL("nomfichier",A1)))</f>
-        <v>siNTP</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" s="1">
-        <v>0.65627120000000005</v>
-      </c>
-      <c r="J2" s="1">
-        <v>0.69322499999999998</v>
-      </c>
-      <c r="K2" s="1">
-        <v>500</v>
-      </c>
-      <c r="L2" s="1">
-        <f>50</f>
-        <v>50</v>
-      </c>
-      <c r="M2" s="1">
-        <f>10^((LOG(AVERAGE(I2:J2)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K2</f>
-        <v>1479.4059007533888</v>
-      </c>
-      <c r="N2" s="1">
-        <f t="shared" ref="N2:N19" si="1">(L2/10^3 * M2)</f>
-        <v>73.970295037669445</v>
-      </c>
-      <c r="O2" s="1"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <f>Blank!A$2</f>
-        <v>43164</v>
-      </c>
-      <c r="B3" s="2" t="str">
-        <f>Blank!B$2</f>
-        <v>User</v>
-      </c>
-      <c r="C3" s="2" t="str">
-        <f>Blank!C$2</f>
-        <v>siGENE_AB</v>
-      </c>
-      <c r="D3" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>siNTP</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" s="1">
-        <v>0.70412640000000004</v>
-      </c>
-      <c r="J3" s="1">
-        <v>0.67012340000000004</v>
-      </c>
-      <c r="K3" s="1">
-        <v>500</v>
-      </c>
-      <c r="L3" s="1">
-        <f>50</f>
-        <v>50</v>
-      </c>
-      <c r="M3" s="1">
-        <f>10^((LOG(AVERAGE(I3:J3)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K3</f>
-        <v>1515.2849726701259</v>
-      </c>
-      <c r="N3" s="1">
-        <f t="shared" si="1"/>
-        <v>75.764248633506298</v>
-      </c>
-      <c r="O3" s="1"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <f>Blank!A$2</f>
-        <v>43164</v>
-      </c>
-      <c r="B4" s="2" t="str">
-        <f>Blank!B$2</f>
-        <v>User</v>
-      </c>
-      <c r="C4" s="2" t="str">
-        <f>Blank!C$2</f>
-        <v>siGENE_AB</v>
-      </c>
-      <c r="D4" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>siNTP</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" s="1">
-        <v>0.64966840000000003</v>
-      </c>
-      <c r="J4" s="1">
-        <v>0.65181849999999997</v>
-      </c>
-      <c r="K4" s="1">
-        <v>500</v>
-      </c>
-      <c r="L4" s="1">
-        <f>50</f>
-        <v>50</v>
-      </c>
-      <c r="M4" s="1">
-        <f>10^((LOG(AVERAGE(I4:J4)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K4</f>
-        <v>1409.7128809221244</v>
-      </c>
-      <c r="N4" s="1">
-        <f t="shared" si="1"/>
-        <v>70.485644046106231</v>
-      </c>
-      <c r="O4" s="1"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <f>Blank!A$2</f>
-        <v>43164</v>
-      </c>
-      <c r="B5" s="2" t="str">
-        <f>Blank!B$2</f>
-        <v>User</v>
-      </c>
-      <c r="C5" s="2" t="str">
-        <f>Blank!C$2</f>
-        <v>siGENE_AB</v>
-      </c>
-      <c r="D5" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>siNTP</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0.63302199999999997</v>
-      </c>
-      <c r="J5" s="1">
-        <v>0.63555430000000002</v>
-      </c>
-      <c r="K5" s="1">
-        <v>500</v>
-      </c>
-      <c r="L5" s="1">
-        <f>50</f>
-        <v>50</v>
-      </c>
-      <c r="M5" s="1">
-        <f>10^((LOG(AVERAGE(I5:J5)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K5</f>
-        <v>1361.8540018003491</v>
-      </c>
-      <c r="N5" s="1">
-        <f t="shared" si="1"/>
-        <v>68.092700090017459</v>
-      </c>
-      <c r="O5" s="1"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <f>Blank!A$2</f>
-        <v>43164</v>
-      </c>
-      <c r="B6" s="2" t="str">
-        <f>Blank!B$2</f>
-        <v>User</v>
-      </c>
-      <c r="C6" s="2" t="str">
-        <f>Blank!C$2</f>
-        <v>siGENE_AB</v>
-      </c>
-      <c r="D6" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>siNTP</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I6" s="1">
-        <v>0.61521700000000001</v>
-      </c>
-      <c r="J6" s="1">
-        <v>0.60465959999999996</v>
-      </c>
-      <c r="K6" s="1">
-        <v>500</v>
-      </c>
-      <c r="L6" s="1">
-        <f>50</f>
-        <v>50</v>
-      </c>
-      <c r="M6" s="1">
-        <f>10^((LOG(AVERAGE(I6:J6)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K6</f>
-        <v>1290.9028095422809</v>
-      </c>
-      <c r="N6" s="1">
-        <f t="shared" si="1"/>
-        <v>64.545140477114046</v>
-      </c>
-      <c r="O6" s="1"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <f>Blank!A$2</f>
-        <v>43164</v>
-      </c>
-      <c r="B7" s="2" t="str">
-        <f>Blank!B$2</f>
-        <v>User</v>
-      </c>
-      <c r="C7" s="2" t="str">
-        <f>Blank!C$2</f>
-        <v>siGENE_AB</v>
-      </c>
-      <c r="D7" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>siNTP</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I7" s="1">
-        <v>0.62787649999999995</v>
-      </c>
-      <c r="J7" s="1">
-        <v>0.60824290000000003</v>
-      </c>
-      <c r="K7" s="1">
-        <v>500</v>
-      </c>
-      <c r="L7" s="1">
-        <f>50</f>
-        <v>50</v>
-      </c>
-      <c r="M7" s="1">
-        <f>10^((LOG(AVERAGE(I7:J7)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K7</f>
-        <v>1314.5850608530984</v>
-      </c>
-      <c r="N7" s="1">
-        <f t="shared" si="1"/>
-        <v>65.729253042654918</v>
-      </c>
-      <c r="O7" s="1"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
-        <f>Blank!A$2</f>
-        <v>43164</v>
-      </c>
-      <c r="B8" s="5" t="str">
-        <f>Blank!B$2</f>
-        <v>User</v>
-      </c>
-      <c r="C8" s="5" t="str">
-        <f>Blank!C$2</f>
-        <v>siGENE_AB</v>
-      </c>
-      <c r="D8" s="4" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>siNTP</v>
-      </c>
-      <c r="E8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" t="s">
-        <v>29</v>
-      </c>
-      <c r="H8" t="s">
-        <v>24</v>
-      </c>
-      <c r="I8">
-        <v>0.23576630000000001</v>
-      </c>
-      <c r="J8">
-        <v>0.24989030000000001</v>
-      </c>
-      <c r="K8">
-        <v>16</v>
-      </c>
-      <c r="L8">
-        <v>100</v>
-      </c>
-      <c r="M8" s="4">
-        <f>10^((LOG(AVERAGE(I8:J8)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K8</f>
-        <v>6.0618585793661008</v>
-      </c>
-      <c r="N8">
-        <f t="shared" si="1"/>
-        <v>0.60618585793661017</v>
-      </c>
-      <c r="O8">
-        <f t="shared" ref="O8:O13" si="2">N8/(N2+N8+N14) * 100</f>
-        <v>0.77916595797622301</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
-        <f>Blank!A$2</f>
-        <v>43164</v>
-      </c>
-      <c r="B9" s="5" t="str">
-        <f>Blank!B$2</f>
-        <v>User</v>
-      </c>
-      <c r="C9" s="5" t="str">
-        <f>Blank!C$2</f>
-        <v>siGENE_AB</v>
-      </c>
-      <c r="D9" s="4" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>siNTP</v>
-      </c>
-      <c r="E9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" t="s">
-        <v>29</v>
-      </c>
-      <c r="H9" t="s">
-        <v>24</v>
-      </c>
-      <c r="I9">
-        <v>0.24887029999999999</v>
-      </c>
-      <c r="J9">
-        <v>0.24298539999999999</v>
-      </c>
-      <c r="K9">
-        <v>16</v>
-      </c>
-      <c r="L9">
-        <v>100</v>
-      </c>
-      <c r="M9" s="4">
-        <f>10^((LOG(AVERAGE(I9:J9)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K9</f>
-        <v>6.3753465157495901</v>
-      </c>
-      <c r="N9">
-        <f t="shared" si="1"/>
-        <v>0.63753465157495903</v>
-      </c>
-      <c r="O9">
-        <f t="shared" si="2"/>
-        <v>0.80296363541792848</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
-        <f>Blank!A$2</f>
-        <v>43164</v>
-      </c>
-      <c r="B10" s="5" t="str">
-        <f>Blank!B$2</f>
-        <v>User</v>
-      </c>
-      <c r="C10" s="5" t="str">
-        <f>Blank!C$2</f>
-        <v>siGENE_AB</v>
-      </c>
-      <c r="D10" s="4" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>siNTP</v>
-      </c>
-      <c r="E10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" t="s">
-        <v>29</v>
-      </c>
-      <c r="H10" t="s">
-        <v>24</v>
-      </c>
-      <c r="I10">
-        <v>0.2459665</v>
-      </c>
-      <c r="J10">
-        <v>0.24074509999999999</v>
-      </c>
-      <c r="K10">
-        <v>16</v>
-      </c>
-      <c r="L10">
-        <v>100</v>
-      </c>
-      <c r="M10" s="4">
-        <f>10^((LOG(AVERAGE(I10:J10)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K10</f>
-        <v>6.1152573634473155</v>
-      </c>
-      <c r="N10">
-        <f t="shared" si="1"/>
-        <v>0.61152573634473162</v>
-      </c>
-      <c r="O10">
-        <f t="shared" si="2"/>
-        <v>0.82117479769358259</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
-        <f>Blank!A$2</f>
-        <v>43164</v>
-      </c>
-      <c r="B11" s="5" t="str">
-        <f>Blank!B$2</f>
-        <v>User</v>
-      </c>
-      <c r="C11" s="5" t="str">
-        <f>Blank!C$2</f>
-        <v>siGENE_AB</v>
-      </c>
-      <c r="D11" s="4" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>siNTP</v>
-      </c>
-      <c r="E11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" t="s">
-        <v>32</v>
-      </c>
-      <c r="H11" t="s">
-        <v>31</v>
-      </c>
-      <c r="I11">
-        <v>0.38160729999999998</v>
-      </c>
-      <c r="J11">
-        <v>0.3874958</v>
-      </c>
-      <c r="K11">
-        <v>16</v>
-      </c>
-      <c r="L11">
-        <v>100</v>
-      </c>
-      <c r="M11" s="4">
-        <f>10^((LOG(AVERAGE(I11:J11)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K11</f>
-        <v>19.983572832695753</v>
-      </c>
-      <c r="N11">
-        <f t="shared" si="1"/>
-        <v>1.9983572832695753</v>
-      </c>
-      <c r="O11">
-        <f t="shared" si="2"/>
-        <v>2.6462494475452738</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
-        <f>Blank!A$2</f>
-        <v>43164</v>
-      </c>
-      <c r="B12" s="5" t="str">
-        <f>Blank!B$2</f>
-        <v>User</v>
-      </c>
-      <c r="C12" s="5" t="str">
-        <f>Blank!C$2</f>
-        <v>siGENE_AB</v>
-      </c>
-      <c r="D12" s="4" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>siNTP</v>
-      </c>
-      <c r="E12" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" t="s">
-        <v>32</v>
-      </c>
-      <c r="H12" t="s">
-        <v>31</v>
-      </c>
-      <c r="I12">
-        <v>0.37907980000000002</v>
-      </c>
-      <c r="J12">
-        <v>0.38853769999999999</v>
-      </c>
-      <c r="K12">
-        <v>16</v>
-      </c>
-      <c r="L12">
-        <v>100</v>
-      </c>
-      <c r="M12" s="4">
-        <f>10^((LOG(AVERAGE(I12:J12)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K12</f>
-        <v>19.91206323372753</v>
-      </c>
-      <c r="N12">
-        <f t="shared" si="1"/>
-        <v>1.9912063233727531</v>
-      </c>
-      <c r="O12">
-        <f t="shared" si="2"/>
-        <v>2.6714456830653979</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
-        <f>Blank!A$2</f>
-        <v>43164</v>
-      </c>
-      <c r="B13" s="5" t="str">
-        <f>Blank!B$2</f>
-        <v>User</v>
-      </c>
-      <c r="C13" s="5" t="str">
-        <f>Blank!C$2</f>
-        <v>siGENE_AB</v>
-      </c>
-      <c r="D13" s="4" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>siNTP</v>
-      </c>
-      <c r="E13" t="s">
-        <v>5</v>
-      </c>
-      <c r="F13" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" t="s">
-        <v>32</v>
-      </c>
-      <c r="H13" t="s">
-        <v>31</v>
-      </c>
-      <c r="I13">
-        <v>0.3732723</v>
-      </c>
-      <c r="J13">
-        <v>0.38798129999999997</v>
-      </c>
-      <c r="K13">
-        <v>16</v>
-      </c>
-      <c r="L13">
-        <v>100</v>
-      </c>
-      <c r="M13" s="4">
-        <f>10^((LOG(AVERAGE(I13:J13)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K13</f>
-        <v>19.605612291859906</v>
-      </c>
-      <c r="N13">
-        <f t="shared" si="1"/>
-        <v>1.9605612291859906</v>
-      </c>
-      <c r="O13">
-        <f t="shared" si="2"/>
-        <v>2.6530481939410855</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <f>Blank!A$2</f>
-        <v>43164</v>
-      </c>
-      <c r="B14" s="2" t="str">
-        <f>Blank!B$2</f>
-        <v>User</v>
-      </c>
-      <c r="C14" s="2" t="str">
-        <f>Blank!C$2</f>
-        <v>siGENE_AB</v>
-      </c>
-      <c r="D14" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>siNTP</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I14" s="1">
-        <v>0.50897029999999999</v>
-      </c>
-      <c r="J14" s="1">
-        <v>0.51733450000000003</v>
-      </c>
-      <c r="K14" s="1">
-        <v>16</v>
-      </c>
-      <c r="L14" s="1">
-        <v>100</v>
-      </c>
-      <c r="M14" s="1">
-        <f>10^((LOG(AVERAGE(I14:J14)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K14</f>
-        <v>32.228443612487268</v>
-      </c>
-      <c r="N14" s="1">
-        <f t="shared" si="1"/>
-        <v>3.2228443612487272</v>
-      </c>
-      <c r="O14" s="1">
-        <f t="shared" ref="O14:O19" si="3">N14/(N2+N14) * 100</f>
-        <v>4.1750398887053084</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <f>Blank!A$2</f>
-        <v>43164</v>
-      </c>
-      <c r="B15" s="2" t="str">
-        <f>Blank!B$2</f>
-        <v>User</v>
-      </c>
-      <c r="C15" s="2" t="str">
-        <f>Blank!C$2</f>
-        <v>siGENE_AB</v>
-      </c>
-      <c r="D15" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>siNTP</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I15" s="1">
-        <v>0.48153639999999998</v>
-      </c>
-      <c r="J15" s="1">
-        <v>0.49673060000000002</v>
-      </c>
-      <c r="K15" s="1">
-        <v>16</v>
-      </c>
-      <c r="L15" s="1">
-        <v>100</v>
-      </c>
-      <c r="M15" s="1">
-        <f>10^((LOG(AVERAGE(I15:J15)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K15</f>
-        <v>29.959158701405745</v>
-      </c>
-      <c r="N15" s="1">
-        <f t="shared" si="1"/>
-        <v>2.9959158701405748</v>
-      </c>
-      <c r="O15" s="1">
-        <f t="shared" si="3"/>
-        <v>3.8038466387431851</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <f>Blank!A$2</f>
-        <v>43164</v>
-      </c>
-      <c r="B16" s="2" t="str">
-        <f>Blank!B$2</f>
-        <v>User</v>
-      </c>
-      <c r="C16" s="2" t="str">
-        <f>Blank!C$2</f>
-        <v>siGENE_AB</v>
-      </c>
-      <c r="D16" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>siNTP</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I16" s="1">
-        <v>0.55124209999999996</v>
-      </c>
-      <c r="J16" s="1">
-        <v>0.50681100000000001</v>
-      </c>
-      <c r="K16" s="1">
-        <v>16</v>
-      </c>
-      <c r="L16" s="1">
-        <v>100</v>
-      </c>
-      <c r="M16" s="1">
-        <f>10^((LOG(AVERAGE(I16:J16)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K16</f>
-        <v>33.724483868245521</v>
-      </c>
-      <c r="N16" s="1">
-        <f t="shared" si="1"/>
-        <v>3.3724483868245523</v>
-      </c>
-      <c r="O16" s="1">
-        <f t="shared" si="3"/>
-        <v>4.566118993510444</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <f>Blank!A$2</f>
-        <v>43164</v>
-      </c>
-      <c r="B17" s="2" t="str">
-        <f>Blank!B$2</f>
-        <v>User</v>
-      </c>
-      <c r="C17" s="2" t="str">
-        <f>Blank!C$2</f>
-        <v>siGENE_AB</v>
-      </c>
-      <c r="D17" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>siNTP</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I17" s="1">
-        <v>0.73388200000000003</v>
-      </c>
-      <c r="J17" s="1">
-        <v>0.76505089999999998</v>
-      </c>
-      <c r="K17" s="1">
-        <v>16</v>
-      </c>
-      <c r="L17" s="1">
-        <v>100</v>
-      </c>
-      <c r="M17" s="1">
-        <f>10^((LOG(AVERAGE(I17:J17)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K17</f>
-        <v>54.255302682635701</v>
-      </c>
-      <c r="N17" s="1">
-        <f t="shared" si="1"/>
-        <v>5.4255302682635707</v>
-      </c>
-      <c r="O17" s="1">
-        <f t="shared" si="3"/>
-        <v>7.37984339642425</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <f>Blank!A$2</f>
-        <v>43164</v>
-      </c>
-      <c r="B18" s="2" t="str">
-        <f>Blank!B$2</f>
-        <v>User</v>
-      </c>
-      <c r="C18" s="2" t="str">
-        <f>Blank!C$2</f>
-        <v>siGENE_AB</v>
-      </c>
-      <c r="D18" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>siNTP</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I18" s="1">
-        <v>1.048583</v>
-      </c>
-      <c r="J18" s="1">
-        <v>1.0133099999999999</v>
-      </c>
-      <c r="K18" s="1">
-        <v>16</v>
-      </c>
-      <c r="L18" s="1">
-        <v>100</v>
-      </c>
-      <c r="M18" s="1">
-        <f>10^((LOG(AVERAGE(I18:J18)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K18</f>
-        <v>80.003108600166399</v>
-      </c>
-      <c r="N18" s="1">
-        <f t="shared" si="1"/>
-        <v>8.0003108600166399</v>
-      </c>
-      <c r="O18" s="1">
-        <f t="shared" si="3"/>
-        <v>11.02799791380148</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
-        <f>Blank!A$2</f>
-        <v>43164</v>
-      </c>
-      <c r="B19" s="2" t="str">
-        <f>Blank!B$2</f>
-        <v>User</v>
-      </c>
-      <c r="C19" s="2" t="str">
-        <f>Blank!C$2</f>
-        <v>siGENE_AB</v>
-      </c>
-      <c r="D19" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>siNTP</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I19" s="1">
-        <v>0.8531126</v>
-      </c>
-      <c r="J19" s="1">
-        <v>0.81604189999999999</v>
-      </c>
-      <c r="K19" s="1">
-        <v>16</v>
-      </c>
-      <c r="L19" s="1">
-        <v>100</v>
-      </c>
-      <c r="M19" s="1">
-        <f>10^((LOG(AVERAGE(I19:J19)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K19</f>
-        <v>62.086257815073125</v>
-      </c>
-      <c r="N19" s="1">
-        <f t="shared" si="1"/>
-        <v>6.2086257815073127</v>
-      </c>
-      <c r="O19" s="1">
-        <f t="shared" si="3"/>
-        <v>8.6305377403232288</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4257,22 +3223,22 @@
         <v>3</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>1</v>
@@ -4281,19 +3247,19 @@
         <v>0</v>
       </c>
       <c r="K1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -4310,26 +3276,26 @@
         <v>siGENE_AB</v>
       </c>
       <c r="D2" s="1" t="str">
-        <f t="shared" ref="D2:D19" ca="1" si="0">RIGHT(CELL("nomfichier",A7),LEN(CELL("nomfichier",A7))-SEARCH("]",CELL("nomfichier",A7)))</f>
-        <v>siGENE</v>
+        <f ca="1">RIGHT(CELL("nomfichier",A1),LEN(CELL("nomfichier",A1))-SEARCH("]",CELL("nomfichier",A1)))</f>
+        <v>siNTP</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I2" s="1">
-        <v>0.64171560000000005</v>
+        <v>0.65627120000000005</v>
       </c>
       <c r="J2" s="1">
-        <v>0.69593419999999995</v>
+        <v>0.69322499999999998</v>
       </c>
       <c r="K2" s="1">
         <v>500</v>
@@ -4340,11 +3306,11 @@
       </c>
       <c r="M2" s="1">
         <f>10^((LOG(AVERAGE(I2:J2)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K2</f>
-        <v>1462.2221656672075</v>
+        <v>1479.4059007533888</v>
       </c>
       <c r="N2" s="1">
-        <f t="shared" ref="N2:N19" si="1">(L2/10^3 * M2)</f>
-        <v>73.11110828336038</v>
+        <f t="shared" ref="N2:N19" si="0">(L2/10^3 * M2)</f>
+        <v>73.970295037669445</v>
       </c>
       <c r="O2" s="1"/>
     </row>
@@ -4362,26 +3328,26 @@
         <v>siGENE_AB</v>
       </c>
       <c r="D3" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>siGENE</v>
+        <f t="shared" ref="D3:D19" ca="1" si="1">RIGHT(CELL("nomfichier",A2),LEN(CELL("nomfichier",A2))-SEARCH("]",CELL("nomfichier",A2)))</f>
+        <v>siNTP</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I3" s="1">
-        <v>0.61800370000000004</v>
+        <v>0.70412640000000004</v>
       </c>
       <c r="J3" s="1">
-        <v>0.62999329999999998</v>
+        <v>0.67012340000000004</v>
       </c>
       <c r="K3" s="1">
         <v>500</v>
@@ -4392,11 +3358,11 @@
       </c>
       <c r="M3" s="1">
         <f>10^((LOG(AVERAGE(I3:J3)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K3</f>
-        <v>1331.8913401791262</v>
+        <v>1515.2849726701259</v>
       </c>
       <c r="N3" s="1">
-        <f t="shared" si="1"/>
-        <v>66.594567008956318</v>
+        <f t="shared" si="0"/>
+        <v>75.764248633506298</v>
       </c>
       <c r="O3" s="1"/>
     </row>
@@ -4414,26 +3380,26 @@
         <v>siGENE_AB</v>
       </c>
       <c r="D4" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>siGENE</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>siNTP</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I4" s="1">
-        <v>0.65488559999999996</v>
+        <v>0.64966840000000003</v>
       </c>
       <c r="J4" s="1">
-        <v>0.66175220000000001</v>
+        <v>0.65181849999999997</v>
       </c>
       <c r="K4" s="1">
         <v>500</v>
@@ -4444,11 +3410,11 @@
       </c>
       <c r="M4" s="1">
         <f>10^((LOG(AVERAGE(I4:J4)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K4</f>
-        <v>1431.7222078163061</v>
+        <v>1409.7128809221244</v>
       </c>
       <c r="N4" s="1">
-        <f t="shared" si="1"/>
-        <v>71.586110390815307</v>
+        <f t="shared" si="0"/>
+        <v>70.485644046106231</v>
       </c>
       <c r="O4" s="1"/>
     </row>
@@ -4466,26 +3432,26 @@
         <v>siGENE_AB</v>
       </c>
       <c r="D5" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>siGENE</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>siNTP</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I5" s="1">
-        <v>0.55879939999999995</v>
+        <v>0.63302199999999997</v>
       </c>
       <c r="J5" s="1">
-        <v>0.60010629999999998</v>
+        <v>0.63555430000000002</v>
       </c>
       <c r="K5" s="1">
         <v>500</v>
@@ -4496,11 +3462,11 @@
       </c>
       <c r="M5" s="1">
         <f>10^((LOG(AVERAGE(I5:J5)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K5</f>
-        <v>1201.8389634363507</v>
+        <v>1361.8540018003491</v>
       </c>
       <c r="N5" s="1">
-        <f t="shared" si="1"/>
-        <v>60.091948171817535</v>
+        <f t="shared" si="0"/>
+        <v>68.092700090017459</v>
       </c>
       <c r="O5" s="1"/>
     </row>
@@ -4518,26 +3484,26 @@
         <v>siGENE_AB</v>
       </c>
       <c r="D6" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>siGENE</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>siNTP</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I6" s="1">
-        <v>0.58267420000000003</v>
+        <v>0.61521700000000001</v>
       </c>
       <c r="J6" s="1">
-        <v>0.57060160000000004</v>
+        <v>0.60465959999999996</v>
       </c>
       <c r="K6" s="1">
         <v>500</v>
@@ -4548,11 +3514,11 @@
       </c>
       <c r="M6" s="1">
         <f>10^((LOG(AVERAGE(I6:J6)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K6</f>
-        <v>1193.6012289862181</v>
+        <v>1290.9028095422809</v>
       </c>
       <c r="N6" s="1">
-        <f t="shared" si="1"/>
-        <v>59.680061449310905</v>
+        <f t="shared" si="0"/>
+        <v>64.545140477114046</v>
       </c>
       <c r="O6" s="1"/>
     </row>
@@ -4570,26 +3536,26 @@
         <v>siGENE_AB</v>
       </c>
       <c r="D7" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>siGENE</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>siNTP</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I7" s="1">
-        <v>0.60214330000000005</v>
+        <v>0.62787649999999995</v>
       </c>
       <c r="J7" s="1">
-        <v>0.59900050000000005</v>
+        <v>0.60824290000000003</v>
       </c>
       <c r="K7" s="1">
         <v>500</v>
@@ -4600,11 +3566,11 @@
       </c>
       <c r="M7" s="1">
         <f>10^((LOG(AVERAGE(I7:J7)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K7</f>
-        <v>1263.5672212661409</v>
+        <v>1314.5850608530984</v>
       </c>
       <c r="N7" s="1">
-        <f t="shared" si="1"/>
-        <v>63.178361063307051</v>
+        <f t="shared" si="0"/>
+        <v>65.729253042654918</v>
       </c>
       <c r="O7" s="1"/>
     </row>
@@ -4621,27 +3587,27 @@
         <f>Blank!C$2</f>
         <v>siGENE_AB</v>
       </c>
-      <c r="D8" s="4" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>siGENE</v>
+      <c r="D8" s="5" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>siNTP</v>
       </c>
       <c r="E8" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="F8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I8">
-        <v>0.27633999999999997</v>
+        <v>0.23576630000000001</v>
       </c>
       <c r="J8">
-        <v>0.2902807</v>
+        <v>0.24989030000000001</v>
       </c>
       <c r="K8">
         <v>16</v>
@@ -4651,15 +3617,15 @@
       </c>
       <c r="M8" s="4">
         <f>10^((LOG(AVERAGE(I8:J8)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K8</f>
-        <v>10.112651726628847</v>
+        <v>6.0618585793661008</v>
       </c>
       <c r="N8">
-        <f t="shared" si="1"/>
-        <v>1.0112651726628847</v>
+        <f t="shared" si="0"/>
+        <v>0.60618585793661017</v>
       </c>
       <c r="O8">
         <f t="shared" ref="O8:O13" si="2">N8/(N2+N8+N14) * 100</f>
-        <v>1.322846399771699</v>
+        <v>0.77916595797622301</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -4675,27 +3641,27 @@
         <f>Blank!C$2</f>
         <v>siGENE_AB</v>
       </c>
-      <c r="D9" s="4" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>siGENE</v>
+      <c r="D9" s="5" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>siNTP</v>
       </c>
       <c r="E9" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="F9" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G9" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I9">
-        <v>0.26498090000000002</v>
+        <v>0.24887029999999999</v>
       </c>
       <c r="J9">
-        <v>0.2633066</v>
+        <v>0.24298539999999999</v>
       </c>
       <c r="K9">
         <v>16</v>
@@ -4705,15 +3671,15 @@
       </c>
       <c r="M9" s="4">
         <f>10^((LOG(AVERAGE(I9:J9)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K9</f>
-        <v>8.2055273947945082</v>
+        <v>6.3753465157495901</v>
       </c>
       <c r="N9">
-        <f t="shared" si="1"/>
-        <v>0.82055273947945084</v>
+        <f t="shared" si="0"/>
+        <v>0.63753465157495903</v>
       </c>
       <c r="O9">
         <f t="shared" si="2"/>
-        <v>1.1877381253929891</v>
+        <v>0.80296363541792848</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -4729,27 +3695,27 @@
         <f>Blank!C$2</f>
         <v>siGENE_AB</v>
       </c>
-      <c r="D10" s="4" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>siGENE</v>
+      <c r="D10" s="5" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>siNTP</v>
       </c>
       <c r="E10" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="F10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I10">
-        <v>0.27241500000000002</v>
+        <v>0.2459665</v>
       </c>
       <c r="J10">
-        <v>0.27276470000000003</v>
+        <v>0.24074509999999999</v>
       </c>
       <c r="K10">
         <v>16</v>
@@ -4759,15 +3725,15 @@
       </c>
       <c r="M10" s="4">
         <f>10^((LOG(AVERAGE(I10:J10)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K10</f>
-        <v>9.0480198177226061</v>
+        <v>6.1152573634473155</v>
       </c>
       <c r="N10">
-        <f t="shared" si="1"/>
-        <v>0.90480198177226068</v>
+        <f t="shared" si="0"/>
+        <v>0.61152573634473162</v>
       </c>
       <c r="O10">
         <f t="shared" si="2"/>
-        <v>1.2072792882010015</v>
+        <v>0.82117479769358259</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -4783,27 +3749,27 @@
         <f>Blank!C$2</f>
         <v>siGENE_AB</v>
       </c>
-      <c r="D11" s="4" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>siGENE</v>
+      <c r="D11" s="5" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>siNTP</v>
       </c>
       <c r="E11" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="F11" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I11">
-        <v>0.33661829999999998</v>
+        <v>0.38160729999999998</v>
       </c>
       <c r="J11">
-        <v>0.37180849999999999</v>
+        <v>0.3874958</v>
       </c>
       <c r="K11">
         <v>16</v>
@@ -4813,15 +3779,15 @@
       </c>
       <c r="M11" s="4">
         <f>10^((LOG(AVERAGE(I11:J11)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K11</f>
-        <v>17.053579084189369</v>
+        <v>19.983572832695753</v>
       </c>
       <c r="N11">
-        <f t="shared" si="1"/>
-        <v>1.705357908418937</v>
+        <f t="shared" si="0"/>
+        <v>1.9983572832695753</v>
       </c>
       <c r="O11">
         <f t="shared" si="2"/>
-        <v>2.4950046627070366</v>
+        <v>2.6462494475452738</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -4837,27 +3803,27 @@
         <f>Blank!C$2</f>
         <v>siGENE_AB</v>
       </c>
-      <c r="D12" s="4" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>siGENE</v>
+      <c r="D12" s="5" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>siNTP</v>
       </c>
       <c r="E12" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="F12" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G12" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H12" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I12">
-        <v>0.31245509999999999</v>
+        <v>0.37907980000000002</v>
       </c>
       <c r="J12">
-        <v>0.31902570000000002</v>
+        <v>0.38853769999999999</v>
       </c>
       <c r="K12">
         <v>16</v>
@@ -4867,15 +3833,15 @@
       </c>
       <c r="M12" s="4">
         <f>10^((LOG(AVERAGE(I12:J12)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K12</f>
-        <v>13.306310034079095</v>
+        <v>19.91206323372753</v>
       </c>
       <c r="N12">
-        <f t="shared" si="1"/>
-        <v>1.3306310034079096</v>
+        <f t="shared" si="0"/>
+        <v>1.9912063233727531</v>
       </c>
       <c r="O12">
         <f t="shared" si="2"/>
-        <v>1.9659458641806928</v>
+        <v>2.6714456830653979</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -4891,27 +3857,27 @@
         <f>Blank!C$2</f>
         <v>siGENE_AB</v>
       </c>
-      <c r="D13" s="4" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>siGENE</v>
+      <c r="D13" s="5" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>siNTP</v>
       </c>
       <c r="E13" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="F13" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H13" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I13">
-        <v>0.27813660000000001</v>
+        <v>0.3732723</v>
       </c>
       <c r="J13">
-        <v>0.26494020000000001</v>
+        <v>0.38798129999999997</v>
       </c>
       <c r="K13">
         <v>16</v>
@@ -4921,15 +3887,15 @@
       </c>
       <c r="M13" s="4">
         <f>10^((LOG(AVERAGE(I13:J13)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K13</f>
-        <v>8.9433258366535942</v>
+        <v>19.605612291859906</v>
       </c>
       <c r="N13">
-        <f t="shared" si="1"/>
-        <v>0.8943325836653595</v>
+        <f t="shared" si="0"/>
+        <v>1.9605612291859906</v>
       </c>
       <c r="O13">
         <f t="shared" si="2"/>
-        <v>1.2822153439273625</v>
+        <v>2.6530481939410855</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -4946,26 +3912,26 @@
         <v>siGENE_AB</v>
       </c>
       <c r="D14" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>siGENE</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>siNTP</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I14" s="1">
-        <v>0.41087089999999998</v>
+        <v>0.50897029999999999</v>
       </c>
       <c r="J14" s="1">
-        <v>0.42606490000000002</v>
+        <v>0.51733450000000003</v>
       </c>
       <c r="K14" s="1">
         <v>16</v>
@@ -4975,15 +3941,15 @@
       </c>
       <c r="M14" s="1">
         <f>10^((LOG(AVERAGE(I14:J14)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K14</f>
-        <v>23.237787833759501</v>
+        <v>32.228443612487268</v>
       </c>
       <c r="N14" s="1">
-        <f t="shared" si="1"/>
-        <v>2.3237787833759502</v>
+        <f t="shared" si="0"/>
+        <v>3.2228443612487272</v>
       </c>
       <c r="O14" s="1">
         <f t="shared" ref="O14:O19" si="3">N14/(N2+N14) * 100</f>
-        <v>3.0805093952352989</v>
+        <v>4.1750398887053084</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -5000,26 +3966,26 @@
         <v>siGENE_AB</v>
       </c>
       <c r="D15" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>siGENE</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>siNTP</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I15" s="1">
-        <v>0.35466619999999999</v>
+        <v>0.48153639999999998</v>
       </c>
       <c r="J15" s="1">
-        <v>0.34650910000000001</v>
+        <v>0.49673060000000002</v>
       </c>
       <c r="K15" s="1">
         <v>16</v>
@@ -5029,15 +3995,15 @@
       </c>
       <c r="M15" s="1">
         <f>10^((LOG(AVERAGE(I15:J15)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K15</f>
-        <v>16.702048645089526</v>
+        <v>29.959158701405745</v>
       </c>
       <c r="N15" s="1">
-        <f t="shared" si="1"/>
-        <v>1.6702048645089527</v>
+        <f t="shared" si="0"/>
+        <v>2.9959158701405748</v>
       </c>
       <c r="O15" s="1">
         <f t="shared" si="3"/>
-        <v>2.4466570658213342</v>
+        <v>3.8038466387431851</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -5054,26 +4020,26 @@
         <v>siGENE_AB</v>
       </c>
       <c r="D16" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>siGENE</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>siNTP</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I16" s="1">
-        <v>0.43496220000000002</v>
+        <v>0.55124209999999996</v>
       </c>
       <c r="J16" s="1">
-        <v>0.42936550000000001</v>
+        <v>0.50681100000000001</v>
       </c>
       <c r="K16" s="1">
         <v>16</v>
@@ -5083,15 +4049,15 @@
       </c>
       <c r="M16" s="1">
         <f>10^((LOG(AVERAGE(I16:J16)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K16</f>
-        <v>24.546276209403501</v>
+        <v>33.724483868245521</v>
       </c>
       <c r="N16" s="1">
-        <f t="shared" si="1"/>
-        <v>2.4546276209403501</v>
+        <f t="shared" si="0"/>
+        <v>3.3724483868245523</v>
       </c>
       <c r="O16" s="1">
         <f t="shared" si="3"/>
-        <v>3.3152392680778275</v>
+        <v>4.566118993510444</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
@@ -5108,26 +4074,26 @@
         <v>siGENE_AB</v>
       </c>
       <c r="D17" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>siGENE</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>siNTP</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I17" s="1">
-        <v>0.90000599999999997</v>
+        <v>0.73388200000000003</v>
       </c>
       <c r="J17" s="1">
-        <v>0.84442850000000003</v>
+        <v>0.76505089999999998</v>
       </c>
       <c r="K17" s="1">
         <v>16</v>
@@ -5137,15 +4103,15 @@
       </c>
       <c r="M17" s="1">
         <f>10^((LOG(AVERAGE(I17:J17)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K17</f>
-        <v>65.53584557725442</v>
+        <v>54.255302682635701</v>
       </c>
       <c r="N17" s="1">
-        <f t="shared" si="1"/>
-        <v>6.5535845577254426</v>
+        <f t="shared" si="0"/>
+        <v>5.4255302682635707</v>
       </c>
       <c r="O17" s="1">
         <f t="shared" si="3"/>
-        <v>9.8334941432921212</v>
+        <v>7.37984339642425</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
@@ -5162,26 +4128,26 @@
         <v>siGENE_AB</v>
       </c>
       <c r="D18" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>siGENE</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>siNTP</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I18" s="1">
-        <v>0.93077980000000005</v>
+        <v>1.048583</v>
       </c>
       <c r="J18" s="1">
-        <v>0.83982369999999995</v>
+        <v>1.0133099999999999</v>
       </c>
       <c r="K18" s="1">
         <v>16</v>
@@ -5191,15 +4157,15 @@
       </c>
       <c r="M18" s="1">
         <f>10^((LOG(AVERAGE(I18:J18)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K18</f>
-        <v>66.733179593608384</v>
+        <v>80.003108600166399</v>
       </c>
       <c r="N18" s="1">
-        <f t="shared" si="1"/>
-        <v>6.6733179593608387</v>
+        <f t="shared" si="0"/>
+        <v>8.0003108600166399</v>
       </c>
       <c r="O18" s="1">
         <f t="shared" si="3"/>
-        <v>10.057239011535108</v>
+        <v>11.02799791380148</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
@@ -5216,20 +4182,1056 @@
         <v>siGENE_AB</v>
       </c>
       <c r="D19" s="1" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
+        <v>siNTP</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0.8531126</v>
+      </c>
+      <c r="J19" s="1">
+        <v>0.81604189999999999</v>
+      </c>
+      <c r="K19" s="1">
+        <v>16</v>
+      </c>
+      <c r="L19" s="1">
+        <v>100</v>
+      </c>
+      <c r="M19" s="1">
+        <f>10^((LOG(AVERAGE(I19:J19)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K19</f>
+        <v>62.086257815073125</v>
+      </c>
+      <c r="N19" s="1">
+        <f t="shared" si="0"/>
+        <v>6.2086257815073127</v>
+      </c>
+      <c r="O19" s="1">
+        <f t="shared" si="3"/>
+        <v>8.6305377403232288</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D2:D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="11.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="6" width="11.42578125" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" customWidth="1"/>
+    <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="29.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <f>Blank!A$2</f>
+        <v>43164</v>
+      </c>
+      <c r="B2" s="2" t="str">
+        <f>Blank!B$2</f>
+        <v>User</v>
+      </c>
+      <c r="C2" s="2" t="str">
+        <f>Blank!C$2</f>
+        <v>siGENE_AB</v>
+      </c>
+      <c r="D2" s="1" t="str">
+        <f ca="1">RIGHT(CELL("nomfichier",A1),LEN(CELL("nomfichier",A1))-SEARCH("]",CELL("nomfichier",A1)))</f>
         <v>siGENE</v>
       </c>
+      <c r="E2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0.64171560000000005</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0.69593419999999995</v>
+      </c>
+      <c r="K2" s="1">
+        <v>500</v>
+      </c>
+      <c r="L2" s="1">
+        <f>50</f>
+        <v>50</v>
+      </c>
+      <c r="M2" s="1">
+        <f>10^((LOG(AVERAGE(I2:J2)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K2</f>
+        <v>1462.2221656672075</v>
+      </c>
+      <c r="N2" s="1">
+        <f t="shared" ref="N2:N19" si="0">(L2/10^3 * M2)</f>
+        <v>73.11110828336038</v>
+      </c>
+      <c r="O2" s="1"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <f>Blank!A$2</f>
+        <v>43164</v>
+      </c>
+      <c r="B3" s="2" t="str">
+        <f>Blank!B$2</f>
+        <v>User</v>
+      </c>
+      <c r="C3" s="2" t="str">
+        <f>Blank!C$2</f>
+        <v>siGENE_AB</v>
+      </c>
+      <c r="D3" s="1" t="str">
+        <f t="shared" ref="D3:D19" ca="1" si="1">RIGHT(CELL("nomfichier",A2),LEN(CELL("nomfichier",A2))-SEARCH("]",CELL("nomfichier",A2)))</f>
+        <v>siGENE</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0.61800370000000004</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0.62999329999999998</v>
+      </c>
+      <c r="K3" s="1">
+        <v>500</v>
+      </c>
+      <c r="L3" s="1">
+        <f>50</f>
+        <v>50</v>
+      </c>
+      <c r="M3" s="1">
+        <f>10^((LOG(AVERAGE(I3:J3)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K3</f>
+        <v>1331.8913401791262</v>
+      </c>
+      <c r="N3" s="1">
+        <f t="shared" si="0"/>
+        <v>66.594567008956318</v>
+      </c>
+      <c r="O3" s="1"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <f>Blank!A$2</f>
+        <v>43164</v>
+      </c>
+      <c r="B4" s="2" t="str">
+        <f>Blank!B$2</f>
+        <v>User</v>
+      </c>
+      <c r="C4" s="2" t="str">
+        <f>Blank!C$2</f>
+        <v>siGENE_AB</v>
+      </c>
+      <c r="D4" s="1" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>siGENE</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0.65488559999999996</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0.66175220000000001</v>
+      </c>
+      <c r="K4" s="1">
+        <v>500</v>
+      </c>
+      <c r="L4" s="1">
+        <f>50</f>
+        <v>50</v>
+      </c>
+      <c r="M4" s="1">
+        <f>10^((LOG(AVERAGE(I4:J4)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K4</f>
+        <v>1431.7222078163061</v>
+      </c>
+      <c r="N4" s="1">
+        <f t="shared" si="0"/>
+        <v>71.586110390815307</v>
+      </c>
+      <c r="O4" s="1"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <f>Blank!A$2</f>
+        <v>43164</v>
+      </c>
+      <c r="B5" s="2" t="str">
+        <f>Blank!B$2</f>
+        <v>User</v>
+      </c>
+      <c r="C5" s="2" t="str">
+        <f>Blank!C$2</f>
+        <v>siGENE_AB</v>
+      </c>
+      <c r="D5" s="1" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>siGENE</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0.55879939999999995</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0.60010629999999998</v>
+      </c>
+      <c r="K5" s="1">
+        <v>500</v>
+      </c>
+      <c r="L5" s="1">
+        <f>50</f>
+        <v>50</v>
+      </c>
+      <c r="M5" s="1">
+        <f>10^((LOG(AVERAGE(I5:J5)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K5</f>
+        <v>1201.8389634363507</v>
+      </c>
+      <c r="N5" s="1">
+        <f t="shared" si="0"/>
+        <v>60.091948171817535</v>
+      </c>
+      <c r="O5" s="1"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <f>Blank!A$2</f>
+        <v>43164</v>
+      </c>
+      <c r="B6" s="2" t="str">
+        <f>Blank!B$2</f>
+        <v>User</v>
+      </c>
+      <c r="C6" s="2" t="str">
+        <f>Blank!C$2</f>
+        <v>siGENE_AB</v>
+      </c>
+      <c r="D6" s="1" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>siGENE</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0.58267420000000003</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0.57060160000000004</v>
+      </c>
+      <c r="K6" s="1">
+        <v>500</v>
+      </c>
+      <c r="L6" s="1">
+        <f>50</f>
+        <v>50</v>
+      </c>
+      <c r="M6" s="1">
+        <f>10^((LOG(AVERAGE(I6:J6)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K6</f>
+        <v>1193.6012289862181</v>
+      </c>
+      <c r="N6" s="1">
+        <f t="shared" si="0"/>
+        <v>59.680061449310905</v>
+      </c>
+      <c r="O6" s="1"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <f>Blank!A$2</f>
+        <v>43164</v>
+      </c>
+      <c r="B7" s="2" t="str">
+        <f>Blank!B$2</f>
+        <v>User</v>
+      </c>
+      <c r="C7" s="2" t="str">
+        <f>Blank!C$2</f>
+        <v>siGENE_AB</v>
+      </c>
+      <c r="D7" s="1" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>siGENE</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0.60214330000000005</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0.59900050000000005</v>
+      </c>
+      <c r="K7" s="1">
+        <v>500</v>
+      </c>
+      <c r="L7" s="1">
+        <f>50</f>
+        <v>50</v>
+      </c>
+      <c r="M7" s="1">
+        <f>10^((LOG(AVERAGE(I7:J7)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K7</f>
+        <v>1263.5672212661409</v>
+      </c>
+      <c r="N7" s="1">
+        <f t="shared" si="0"/>
+        <v>63.178361063307051</v>
+      </c>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <f>Blank!A$2</f>
+        <v>43164</v>
+      </c>
+      <c r="B8" s="5" t="str">
+        <f>Blank!B$2</f>
+        <v>User</v>
+      </c>
+      <c r="C8" s="5" t="str">
+        <f>Blank!C$2</f>
+        <v>siGENE_AB</v>
+      </c>
+      <c r="D8" s="5" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>siGENE</v>
+      </c>
+      <c r="E8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8">
+        <v>0.27633999999999997</v>
+      </c>
+      <c r="J8">
+        <v>0.2902807</v>
+      </c>
+      <c r="K8">
+        <v>16</v>
+      </c>
+      <c r="L8">
+        <v>100</v>
+      </c>
+      <c r="M8" s="4">
+        <f>10^((LOG(AVERAGE(I8:J8)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K8</f>
+        <v>10.112651726628847</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="0"/>
+        <v>1.0112651726628847</v>
+      </c>
+      <c r="O8">
+        <f t="shared" ref="O8:O13" si="2">N8/(N2+N8+N14) * 100</f>
+        <v>1.322846399771699</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <f>Blank!A$2</f>
+        <v>43164</v>
+      </c>
+      <c r="B9" s="5" t="str">
+        <f>Blank!B$2</f>
+        <v>User</v>
+      </c>
+      <c r="C9" s="5" t="str">
+        <f>Blank!C$2</f>
+        <v>siGENE_AB</v>
+      </c>
+      <c r="D9" s="5" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>siGENE</v>
+      </c>
+      <c r="E9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9">
+        <v>0.26498090000000002</v>
+      </c>
+      <c r="J9">
+        <v>0.2633066</v>
+      </c>
+      <c r="K9">
+        <v>16</v>
+      </c>
+      <c r="L9">
+        <v>100</v>
+      </c>
+      <c r="M9" s="4">
+        <f>10^((LOG(AVERAGE(I9:J9)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K9</f>
+        <v>8.2055273947945082</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="0"/>
+        <v>0.82055273947945084</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="2"/>
+        <v>1.1877381253929891</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <f>Blank!A$2</f>
+        <v>43164</v>
+      </c>
+      <c r="B10" s="5" t="str">
+        <f>Blank!B$2</f>
+        <v>User</v>
+      </c>
+      <c r="C10" s="5" t="str">
+        <f>Blank!C$2</f>
+        <v>siGENE_AB</v>
+      </c>
+      <c r="D10" s="5" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>siGENE</v>
+      </c>
+      <c r="E10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10">
+        <v>0.27241500000000002</v>
+      </c>
+      <c r="J10">
+        <v>0.27276470000000003</v>
+      </c>
+      <c r="K10">
+        <v>16</v>
+      </c>
+      <c r="L10">
+        <v>100</v>
+      </c>
+      <c r="M10" s="4">
+        <f>10^((LOG(AVERAGE(I10:J10)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K10</f>
+        <v>9.0480198177226061</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="0"/>
+        <v>0.90480198177226068</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="2"/>
+        <v>1.2072792882010015</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <f>Blank!A$2</f>
+        <v>43164</v>
+      </c>
+      <c r="B11" s="5" t="str">
+        <f>Blank!B$2</f>
+        <v>User</v>
+      </c>
+      <c r="C11" s="5" t="str">
+        <f>Blank!C$2</f>
+        <v>siGENE_AB</v>
+      </c>
+      <c r="D11" s="5" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>siGENE</v>
+      </c>
+      <c r="E11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11">
+        <v>0.33661829999999998</v>
+      </c>
+      <c r="J11">
+        <v>0.37180849999999999</v>
+      </c>
+      <c r="K11">
+        <v>16</v>
+      </c>
+      <c r="L11">
+        <v>100</v>
+      </c>
+      <c r="M11" s="4">
+        <f>10^((LOG(AVERAGE(I11:J11)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K11</f>
+        <v>17.053579084189369</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="0"/>
+        <v>1.705357908418937</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="2"/>
+        <v>2.4950046627070366</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <f>Blank!A$2</f>
+        <v>43164</v>
+      </c>
+      <c r="B12" s="5" t="str">
+        <f>Blank!B$2</f>
+        <v>User</v>
+      </c>
+      <c r="C12" s="5" t="str">
+        <f>Blank!C$2</f>
+        <v>siGENE_AB</v>
+      </c>
+      <c r="D12" s="5" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>siGENE</v>
+      </c>
+      <c r="E12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12">
+        <v>0.31245509999999999</v>
+      </c>
+      <c r="J12">
+        <v>0.31902570000000002</v>
+      </c>
+      <c r="K12">
+        <v>16</v>
+      </c>
+      <c r="L12">
+        <v>100</v>
+      </c>
+      <c r="M12" s="4">
+        <f>10^((LOG(AVERAGE(I12:J12)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K12</f>
+        <v>13.306310034079095</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="0"/>
+        <v>1.3306310034079096</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="2"/>
+        <v>1.9659458641806928</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <f>Blank!A$2</f>
+        <v>43164</v>
+      </c>
+      <c r="B13" s="5" t="str">
+        <f>Blank!B$2</f>
+        <v>User</v>
+      </c>
+      <c r="C13" s="5" t="str">
+        <f>Blank!C$2</f>
+        <v>siGENE_AB</v>
+      </c>
+      <c r="D13" s="5" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>siGENE</v>
+      </c>
+      <c r="E13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13">
+        <v>0.27813660000000001</v>
+      </c>
+      <c r="J13">
+        <v>0.26494020000000001</v>
+      </c>
+      <c r="K13">
+        <v>16</v>
+      </c>
+      <c r="L13">
+        <v>100</v>
+      </c>
+      <c r="M13" s="4">
+        <f>10^((LOG(AVERAGE(I13:J13)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K13</f>
+        <v>8.9433258366535942</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="0"/>
+        <v>0.8943325836653595</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="2"/>
+        <v>1.2822153439273625</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <f>Blank!A$2</f>
+        <v>43164</v>
+      </c>
+      <c r="B14" s="2" t="str">
+        <f>Blank!B$2</f>
+        <v>User</v>
+      </c>
+      <c r="C14" s="2" t="str">
+        <f>Blank!C$2</f>
+        <v>siGENE_AB</v>
+      </c>
+      <c r="D14" s="1" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>siGENE</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0.41087089999999998</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0.42606490000000002</v>
+      </c>
+      <c r="K14" s="1">
+        <v>16</v>
+      </c>
+      <c r="L14" s="1">
+        <v>100</v>
+      </c>
+      <c r="M14" s="1">
+        <f>10^((LOG(AVERAGE(I14:J14)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K14</f>
+        <v>23.237787833759501</v>
+      </c>
+      <c r="N14" s="1">
+        <f t="shared" si="0"/>
+        <v>2.3237787833759502</v>
+      </c>
+      <c r="O14" s="1">
+        <f t="shared" ref="O14:O19" si="3">N14/(N2+N14) * 100</f>
+        <v>3.0805093952352989</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <f>Blank!A$2</f>
+        <v>43164</v>
+      </c>
+      <c r="B15" s="2" t="str">
+        <f>Blank!B$2</f>
+        <v>User</v>
+      </c>
+      <c r="C15" s="2" t="str">
+        <f>Blank!C$2</f>
+        <v>siGENE_AB</v>
+      </c>
+      <c r="D15" s="1" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>siGENE</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0.35466619999999999</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0.34650910000000001</v>
+      </c>
+      <c r="K15" s="1">
+        <v>16</v>
+      </c>
+      <c r="L15" s="1">
+        <v>100</v>
+      </c>
+      <c r="M15" s="1">
+        <f>10^((LOG(AVERAGE(I15:J15)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K15</f>
+        <v>16.702048645089526</v>
+      </c>
+      <c r="N15" s="1">
+        <f t="shared" si="0"/>
+        <v>1.6702048645089527</v>
+      </c>
+      <c r="O15" s="1">
+        <f t="shared" si="3"/>
+        <v>2.4466570658213342</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <f>Blank!A$2</f>
+        <v>43164</v>
+      </c>
+      <c r="B16" s="2" t="str">
+        <f>Blank!B$2</f>
+        <v>User</v>
+      </c>
+      <c r="C16" s="2" t="str">
+        <f>Blank!C$2</f>
+        <v>siGENE_AB</v>
+      </c>
+      <c r="D16" s="1" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>siGENE</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0.43496220000000002</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0.42936550000000001</v>
+      </c>
+      <c r="K16" s="1">
+        <v>16</v>
+      </c>
+      <c r="L16" s="1">
+        <v>100</v>
+      </c>
+      <c r="M16" s="1">
+        <f>10^((LOG(AVERAGE(I16:J16)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K16</f>
+        <v>24.546276209403501</v>
+      </c>
+      <c r="N16" s="1">
+        <f t="shared" si="0"/>
+        <v>2.4546276209403501</v>
+      </c>
+      <c r="O16" s="1">
+        <f t="shared" si="3"/>
+        <v>3.3152392680778275</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <f>Blank!A$2</f>
+        <v>43164</v>
+      </c>
+      <c r="B17" s="2" t="str">
+        <f>Blank!B$2</f>
+        <v>User</v>
+      </c>
+      <c r="C17" s="2" t="str">
+        <f>Blank!C$2</f>
+        <v>siGENE_AB</v>
+      </c>
+      <c r="D17" s="1" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>siGENE</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0.90000599999999997</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0.84442850000000003</v>
+      </c>
+      <c r="K17" s="1">
+        <v>16</v>
+      </c>
+      <c r="L17" s="1">
+        <v>100</v>
+      </c>
+      <c r="M17" s="1">
+        <f>10^((LOG(AVERAGE(I17:J17)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K17</f>
+        <v>65.53584557725442</v>
+      </c>
+      <c r="N17" s="1">
+        <f t="shared" si="0"/>
+        <v>6.5535845577254426</v>
+      </c>
+      <c r="O17" s="1">
+        <f t="shared" si="3"/>
+        <v>9.8334941432921212</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <f>Blank!A$2</f>
+        <v>43164</v>
+      </c>
+      <c r="B18" s="2" t="str">
+        <f>Blank!B$2</f>
+        <v>User</v>
+      </c>
+      <c r="C18" s="2" t="str">
+        <f>Blank!C$2</f>
+        <v>siGENE_AB</v>
+      </c>
+      <c r="D18" s="1" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>siGENE</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0.93077980000000005</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0.83982369999999995</v>
+      </c>
+      <c r="K18" s="1">
+        <v>16</v>
+      </c>
+      <c r="L18" s="1">
+        <v>100</v>
+      </c>
+      <c r="M18" s="1">
+        <f>10^((LOG(AVERAGE(I18:J18)-Blank!$H$2, 10)-Blank!$M$2)/Blank!$N$2) * K18</f>
+        <v>66.733179593608384</v>
+      </c>
+      <c r="N18" s="1">
+        <f t="shared" si="0"/>
+        <v>6.6733179593608387</v>
+      </c>
+      <c r="O18" s="1">
+        <f t="shared" si="3"/>
+        <v>10.057239011535108</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <f>Blank!A$2</f>
+        <v>43164</v>
+      </c>
+      <c r="B19" s="2" t="str">
+        <f>Blank!B$2</f>
+        <v>User</v>
+      </c>
+      <c r="C19" s="2" t="str">
+        <f>Blank!C$2</f>
+        <v>siGENE_AB</v>
+      </c>
+      <c r="D19" s="1" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>siGENE</v>
+      </c>
       <c r="E19" s="1" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I19" s="1">
         <v>0.77950129999999995</v>
@@ -5248,7 +5250,7 @@
         <v>56.763222184954635</v>
       </c>
       <c r="N19" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5.6763222184954643</v>
       </c>
       <c r="O19" s="1">
